--- a/reports/vivado/LoopFissionSolution/power/LoopFissionLogicPowerReport.xlsx
+++ b/reports/vivado/LoopFissionSolution/power/LoopFissionLogicPowerReport.xlsx
@@ -2673,7 +2673,7 @@
         <v>17.615385055541992</v>
       </c>
       <c r="G77" t="n" s="2">
-        <v>31.96076774597168</v>
+        <v>31.960769653320312</v>
       </c>
     </row>
     <row r="78" outlineLevel="1">
